--- a/biology/Zoologie/Hime_surrubea/Hime_surrubea.xlsx
+++ b/biology/Zoologie/Hime_surrubea/Hime_surrubea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hime surrubea est une espèce de poissons marins téléostéens de la famille des Aulopidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hime surrubea a été décrite pour la première fois en 2015 par les ichtyologues  Martin Fellows Gomon (d) et Carl D. Struthers (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hime surrubea a été décrite pour la première fois en 2015 par les ichtyologues  Martin Fellows Gomon (d) et Carl D. Struthers (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hime surrubea possède un corps allongé dont la longueur varie entre 12,7 et 17 cm pour les mâles et 9 à 17,3 cm pour les femelles, et dont l'holotype est un mâle mesurant 15,6 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hime surrubea possède un corps allongé dont la longueur varie entre 12,7 et 17 cm pour les mâles et 9 à 17,3 cm pour les femelles, et dont l'holotype est un mâle mesurant 15,6 cm.
 Comme les membres de la famille des Aulopidae, l'espèce a une nageoire dorsale dont la longueur dépasse la moitié de celle de l'ensemble du corps.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se croise au large d'Hawaï dans l'océan Pacifique, à des profondeurs variant de 170 à 510 m[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se croise au large d'Hawaï dans l'océan Pacifique, à des profondeurs variant de 170 à 510 m.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, surrubea, du latin « rŭbĕa », roux, fait référence aux tâches rouges présentes sur le dos de l'espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, surrubea, du latin « rŭbĕa », roux, fait référence aux tâches rouges présentes sur le dos de l'espèce.
 </t>
         </is>
       </c>
@@ -633,15 +653,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Proies
-Prédateurs</t>
-        </is>
-      </c>
+          <t>Écologie et environnement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,36 +681,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Écologie et environnement</t>
+          <t>Publication originale</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hime_surrubea</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hime_surrubea</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Publication originale</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Martin F. Gomon et Carl D. Struthers, « Three new species of the Indo-Pacific fish genus Hime (Aulopidae, Aulopiformes), all resembling the type species H. japonica (Günther 1877) », Zootaxa, vol. 4044, no 3,‎ 19 novembre 2015, p. 371–390 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, PMID 26624716, DOI 10.11646/ZOOTAXA.4044.3.3)</t>
         </is>
